--- a/data/2015.xlsx
+++ b/data/2015.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcs\map_challenge\data\정당회계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\quarto\map_challenge\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F37E5DC-305A-41A7-8056-1523BFC12B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CAC955-0E2C-46BB-AAB1-C3AD9AA22238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{957713E0-8D03-4958-86C5-76D6A2E6E3A6}"/>
+    <workbookView xWindow="1335" yWindow="1170" windowWidth="24225" windowHeight="14235" activeTab="2" xr2:uid="{957713E0-8D03-4958-86C5-76D6A2E6E3A6}"/>
   </bookViews>
   <sheets>
     <sheet name="page01" sheetId="1" r:id="rId1"/>
@@ -583,23 +583,23 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.6640625" style="1"/>
+    <col min="15" max="15" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -634,7 +634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -669,7 +669,7 @@
         <v>5198</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -704,7 +704,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -984,7 +984,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1278,19 +1278,19 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="1"/>
+    <col min="8" max="8" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -1453,26 +1453,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FD5105-5CED-4F74-97DF-790D750DB47A}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1524,7 +1523,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,12 +1549,12 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1">
-        <v>47.523000000000003</v>
+      <c r="B4" s="2">
+        <v>47523</v>
       </c>
       <c r="C4" s="2">
         <v>20795</v>
@@ -1576,7 +1575,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1602,7 +1601,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1638,22 +1637,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CF234F-7493-46D2-A8BC-5D4B223CA95C}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="5" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1705,7 +1704,7 @@
         <v>4730</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,7 +1756,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1783,7 +1782,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
